--- a/Turma Intensivo - Manhã Julho 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Produto</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>BCBSD1-007</t>
+  </si>
+  <si>
+    <t>MCBND5-655</t>
+  </si>
+  <si>
+    <t>MCBSD1-567</t>
   </si>
 </sst>
 </file>
@@ -358,16 +364,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>359053</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549520</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92067</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>516390</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -397,8 +403,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4657726" y="0"/>
-          <a:ext cx="3731602" cy="2021915"/>
+          <a:off x="971966" y="1341782"/>
+          <a:ext cx="3760272" cy="2021915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,14 +759,14 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -789,7 +795,18 @@
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="C2" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B2,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IF(MID(B2,2,3)="CBS","Cesta Básica","")</f>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(MID(B2,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -798,7 +815,18 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B3,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D13" si="0">IF(MID(B3,2,3)="CBS","Cesta Básica","")</f>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(MID(B3,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -807,7 +835,18 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B4,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Chocolate</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(MID(B4,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Martins e Filhos</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -816,7 +855,18 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B5,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Doces</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(MID(B5,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -825,7 +875,18 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B6,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(MID(B6,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -834,7 +895,18 @@
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B7,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(MID(B7,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -843,16 +915,38 @@
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="C8" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B8,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Biscoitos e Bolachas</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(MID(B8,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B9,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>erro</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(MID(B9,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -861,7 +955,18 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="C10" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B10,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Chocolate</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(MID(B10,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Martins e Filhos</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -870,7 +975,18 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="C11" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B11,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Doces</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(MID(B11,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -879,16 +995,38 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="C12" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B12,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(MID(B12,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(B13,1),Tabelas!$A$2:$B$6,2,FALSE),"erro")</f>
+        <v>erro</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(MID(B13,5,2),Tabelas!$D$2:$E$6,2,0)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
@@ -905,7 +1043,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
